--- a/medicine/Pharmacie/Ixekizumab/Ixekizumab.xlsx
+++ b/medicine/Pharmacie/Ixekizumab/Ixekizumab.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ixekizumab (nom commercial Taltz) est un médicament injectable destiné au traitement de certaines maladies auto-immunes. C'est un anticorps monoclonal[1] humanisé. Il agit en bloquant l'action de l'interleukine 17, et modifie la cascade des facteurs source de l'inflammation[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ixekizumab (nom commercial Taltz) est un médicament injectable destiné au traitement de certaines maladies auto-immunes. C'est un anticorps monoclonal humanisé. Il agit en bloquant l'action de l'interleukine 17, et modifie la cascade des facteurs source de l'inflammation.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce médicament a été développé par le laboratoire pharmaceutique Lilly et est validé pour le traitement du psoriasis en plaques en Europe et aux États-Unis.
-L'ixekizumab est utilisé pour traiter la forme modérée à grave du psoriasis en plaques chez l'adulte[2].
-Dans les essais cliniques, le médicament réduit la surface des plaques de psoriasis et l'Indice de Gravité d'au moins 75 % (PASI75) chez 82-89 % des patients en maximum trois mois de traitement (en fonction du dosage), et 40 % des patients présentent une absence complète de signe du psoriasis (PASI100). Dans le groupe placebo, le PASI75 a été atteint chez 4 % des patients, et le PASI100 n'a été atteint chez aucun patient dans le groupe de patients recevant de l'étanercept, en plus d'un médicament, anti-psoriasis PASI75 a été atteint 48 %. Jusqu'à la 60e semaine d'étude, 11-44 % de ixekizumab traités les patients en rechute (encore une fois, selon le dosage), comparativement à 84 % sous placebo[2],[3].
-Dans la spondylarthrite ankylosante, tant dans les formes radiologiques[4] que dans les formes sans atteinte radiologique évidente[5], il permet l'amélioration des symptômes.
+L'ixekizumab est utilisé pour traiter la forme modérée à grave du psoriasis en plaques chez l'adulte.
+Dans les essais cliniques, le médicament réduit la surface des plaques de psoriasis et l'Indice de Gravité d'au moins 75 % (PASI75) chez 82-89 % des patients en maximum trois mois de traitement (en fonction du dosage), et 40 % des patients présentent une absence complète de signe du psoriasis (PASI100). Dans le groupe placebo, le PASI75 a été atteint chez 4 % des patients, et le PASI100 n'a été atteint chez aucun patient dans le groupe de patients recevant de l'étanercept, en plus d'un médicament, anti-psoriasis PASI75 a été atteint 48 %. Jusqu'à la 60e semaine d'étude, 11-44 % de ixekizumab traités les patients en rechute (encore une fois, selon le dosage), comparativement à 84 % sous placebo,.
+Dans la spondylarthrite ankylosante, tant dans les formes radiologiques que dans les formes sans atteinte radiologique évidente, il permet l'amélioration des symptômes.
 </t>
         </is>
       </c>
